--- a/biology/Médecine/Chirurgie_cytoréductrice/Chirurgie_cytoréductrice.xlsx
+++ b/biology/Médecine/Chirurgie_cytoréductrice/Chirurgie_cytoréductrice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chirurgie_cytor%C3%A9ductrice</t>
+          <t>Chirurgie_cytoréductrice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chirurgie cytoréductive est une intervention chirurgicale qui vise à réduire la quantité de cellules cancéreuses dans la cavité abdominale chez les patients atteints de tumeurs qui se sont propagées de manière intra-abdominale (carcinomatose péritonéale). Il est souvent utilisé pour traiter le cancer de l'ovaire, mais peut également être utilisé pour d'autres tumeurs malignes abdominales.
-La chirurgie cytoréductive est souvent utilisé en association avec la chimiothérapie intrapéritonéale hyperthermique (CHIP)[1], pour certains diagnostics de cancer, il augmente considérablement l'espérance de vie et réduit le taux de récidive du cancer.
+La chirurgie cytoréductive est souvent utilisé en association avec la chimiothérapie intrapéritonéale hyperthermique (CHIP), pour certains diagnostics de cancer, il augmente considérablement l'espérance de vie et réduit le taux de récidive du cancer.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chirurgie_cytor%C3%A9ductrice</t>
+          <t>Chirurgie_cytoréductrice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Cancer des ovaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les patientes atteintes d'un cancer épithélial de l'ovaire de stade III, l'ajout de la chimiohyperthermie intrapéritonéale à la chirurgie de cytoréduction d'intervalle a entraîné une survie sans récidive et une survie globale plus longues que la chirurgie seule et n'a pas entraîné de taux plus élevés d'effets secondaires[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les patientes atteintes d'un cancer épithélial de l'ovaire de stade III, l'ajout de la chimiohyperthermie intrapéritonéale à la chirurgie de cytoréduction d'intervalle a entraîné une survie sans récidive et une survie globale plus longues que la chirurgie seule et n'a pas entraîné de taux plus élevés d'effets secondaires. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chirurgie_cytor%C3%A9ductrice</t>
+          <t>Chirurgie_cytoréductrice</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Cancer colorectal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les patients atteints d'un cancer colorectal avec carcinomatose péritonéale, la chirurgie de cytoréduction, avec l'ajout de la chimiohyperthermie intrapéritonéale, peut être utilisée pour prolonger la survie globale des patients[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les patients atteints d'un cancer colorectal avec carcinomatose péritonéale, la chirurgie de cytoréduction, avec l'ajout de la chimiohyperthermie intrapéritonéale, peut être utilisée pour prolonger la survie globale des patients. 
 </t>
         </is>
       </c>
